--- a/Formulas and Functions/8_Text_Functions.xlsx
+++ b/Formulas and Functions/8_Text_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Desktop\Excel\Excel_Data_Analytics_Project\Formulas and Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DDBA8A-8B94-436A-B0E4-DF6F3656EC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5C8D04-CA72-4B19-8E98-C1CD6A64B189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1787,22 +1787,22 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="34.77734375" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0.21875" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" customWidth="1"/>
@@ -1883,6 +1883,21 @@
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="J2" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,F2:G2)</f>
+        <v>457 Oak StSan Jose, CA, 95101</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:M2">_xlfn.TEXTSPLIT(B2, " ")</f>
+        <v>Pam</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Beesly</v>
+      </c>
+      <c r="O2" t="str">
+        <f>RIGHT(A2,7)</f>
+        <v>0123548</v>
+      </c>
       <c r="Q2">
         <f>FIND(",", G2)+LEN(", ")</f>
         <v>11</v>
@@ -1895,6 +1910,18 @@
         <f>MID(G2,Q2,R2-Q2)</f>
         <v>CA</v>
       </c>
+      <c r="T2">
+        <f>FIND(",",G2)+LEN(", ")</f>
+        <v>11</v>
+      </c>
+      <c r="U2">
+        <f>FIND(",",G2,T2)</f>
+        <v>13</v>
+      </c>
+      <c r="V2" t="str">
+        <f>MID(G2,T2,U2-T2)</f>
+        <v>CA</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1921,16 +1948,43 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="0">_xlfn.TEXTJOIN("",TRUE,F3:G3)</f>
+        <v>203 Birch StChicago, IL, 60601</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3:M3">_xlfn.TEXTSPLIT(B3, " ")</f>
+        <v>Michael</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Scott</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O21" si="1">RIGHT(A3,7)</f>
+        <v>0123549</v>
+      </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q21" si="0">FIND(",", G3)+LEN(", ")</f>
+        <f t="shared" ref="Q3:Q21" si="2">FIND(",", G3)+LEN(", ")</f>
         <v>10</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R21" si="1">FIND(",",G3,Q3)</f>
+        <f t="shared" ref="R3:R21" si="3">FIND(",",G3,Q3)</f>
         <v>12</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S21" si="2">MID(G3,Q3,R3-Q3)</f>
+        <f t="shared" ref="S3:S21" si="4">MID(G3,Q3,R3-Q3)</f>
+        <v>IL</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T21" si="5">FIND(",",G3)+LEN(", ")</f>
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U21" si="6">FIND(",",G3,T3)</f>
+        <v>12</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V21" si="7">MID(G3,T3,U3-T3)</f>
         <v>IL</v>
       </c>
     </row>
@@ -1959,16 +2013,43 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>790 Pine StChicago, IL, 60601</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4:M4">_xlfn.TEXTSPLIT(B4, " ")</f>
+        <v>Kevin</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Malone</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>0123550</v>
+      </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>IL</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="7"/>
         <v>IL</v>
       </c>
     </row>
@@ -1997,16 +2078,43 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>457 Oak StSan Jose, CA, 95101</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5:M5">_xlfn.TEXTSPLIT(B5, " ")</f>
+        <v>Pam</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Beesly</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>0123551</v>
+      </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>CA</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="7"/>
         <v>CA</v>
       </c>
     </row>
@@ -2035,16 +2143,43 @@
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak StPhiladelphia, PA, 19101</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6:M6">_xlfn.TEXTSPLIT(B6, " ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>0123552</v>
+      </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>PA</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="7"/>
         <v>PA</v>
       </c>
     </row>
@@ -2073,16 +2208,43 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch StPhiladelphia, PA, 19101</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7:M7">_xlfn.TEXTSPLIT(B7, " ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>0123553</v>
+      </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>PA</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="7"/>
         <v>PA</v>
       </c>
     </row>
@@ -2111,16 +2273,43 @@
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>790 Pine StChicago, IL, 60601</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8:M8">_xlfn.TEXTSPLIT(B8, " ")</f>
+        <v>Kevin</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Malone</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>0123554</v>
+      </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>IL</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="7"/>
         <v>IL</v>
       </c>
     </row>
@@ -2149,16 +2338,43 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch StPhiladelphia, PA, 19101</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9:M9">_xlfn.TEXTSPLIT(B9, " ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>0123555</v>
+      </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>PA</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="7"/>
         <v>PA</v>
       </c>
     </row>
@@ -2187,16 +2403,43 @@
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm StChicago, IL, 60601</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10:M10">_xlfn.TEXTSPLIT(B10, " ")</f>
+        <v>Stanley</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>0123556</v>
+      </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>IL</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="7"/>
         <v>IL</v>
       </c>
     </row>
@@ -2225,16 +2468,43 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm StLos Angeles, CA, 90001</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11:M11">_xlfn.TEXTSPLIT(B11, " ")</f>
+        <v>Angela</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>0123557</v>
+      </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>CA</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="7"/>
         <v>CA</v>
       </c>
     </row>
@@ -2263,16 +2533,43 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm StSan Diego, CA, 92101</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12:M12">_xlfn.TEXTSPLIT(B12, " ")</f>
+        <v>Dwight</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Schrute</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>0123558</v>
+      </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>CA</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="7"/>
         <v>CA</v>
       </c>
     </row>
@@ -2301,16 +2598,43 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>202 Birch StChicago, IL, 60601</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13:M13">_xlfn.TEXTSPLIT(B13, " ")</f>
+        <v>Oscar</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Martinez</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>0123559</v>
+      </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>IL</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="7"/>
         <v>IL</v>
       </c>
     </row>
@@ -2339,16 +2663,43 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch StPhiladelphia, PA, 19101</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14:M14">_xlfn.TEXTSPLIT(B14, " ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>0123560</v>
+      </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>PA</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="7"/>
         <v>PA</v>
       </c>
     </row>
@@ -2377,16 +2728,43 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm StChicago, IL, 60601</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15:M15">_xlfn.TEXTSPLIT(B15, " ")</f>
+        <v>Phyllis</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>0123561</v>
+      </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>IL</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="7"/>
         <v>IL</v>
       </c>
     </row>
@@ -2415,20 +2793,47 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>456 Oak StChicago, IL, 60601</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16:M16">_xlfn.TEXTSPLIT(B16, " ")</f>
+        <v>Meredith</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Palmer</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>0123562</v>
+      </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2453,20 +2858,47 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>203 Birch StChicago, IL, 60602</v>
+      </c>
+      <c r="L17" t="str" cm="1">
+        <f t="array" ref="L17:M17">_xlfn.TEXTSPLIT(B17, " ")</f>
+        <v>Michael</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Scott</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>0123563</v>
+      </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2491,20 +2923,47 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak StPhiladelphia, PA, 19101</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" ref="L18:M18">_xlfn.TEXTSPLIT(B18, " ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>0123564</v>
+      </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="7"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2529,20 +2988,47 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>456 Oak StNew York, NY, 10001</v>
+      </c>
+      <c r="L19" t="str" cm="1">
+        <f t="array" ref="L19:M19">_xlfn.TEXTSPLIT(B19, " ")</f>
+        <v>Kelly</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Kapoor</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>0123565</v>
+      </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NY</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="7"/>
+        <v>NY</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2567,20 +3053,47 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak StPhiladelphia, PA, 19101</v>
+      </c>
+      <c r="L20" t="str" cm="1">
+        <f t="array" ref="L20:M20">_xlfn.TEXTSPLIT(B20, " ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>0123566</v>
+      </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="7"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2605,16 +3118,43 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak StNew York, NY, 10001</v>
+      </c>
+      <c r="L21" t="str" cm="1">
+        <f t="array" ref="L21:M21">_xlfn.TEXTSPLIT(B21, " ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>0123567</v>
+      </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>NY</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="7"/>
         <v>NY</v>
       </c>
     </row>
@@ -4194,7 +4734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5013,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Formulas and Functions/8_Text_Functions.xlsx
+++ b/Formulas and Functions/8_Text_Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Desktop\Excel\Excel_Data_Analytics_Project\Formulas and Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5C8D04-CA72-4B19-8E98-C1CD6A64B189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EDA389-1645-4DAB-A014-84F9EB3E612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1484,16 +1484,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>588963</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106363</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30163</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1786,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,11 +1798,11 @@
     <col min="4" max="4" width="17.5546875" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="26.21875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0.21875" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" customWidth="1"/>
@@ -5555,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
